--- a/engenharias/alunos_concluidos_engenharias.xlsx
+++ b/engenharias/alunos_concluidos_engenharias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\Downloads\pastaTesteTeste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\Downloads\pastaTesteTeste\engenharias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCF16F-70EA-4646-AF00-106EF7DC6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A23D83-662C-4E59-B7E0-A615C2BF11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="816">
   <si>
     <t>Matrícula</t>
   </si>
@@ -1508,13 +1508,973 @@
   </si>
   <si>
     <t>MARIANA CARVALHO MUNIZ</t>
+  </si>
+  <si>
+    <t>2016026576</t>
+  </si>
+  <si>
+    <t>DAYANNE CHRISTINNE BRAGA FERREIRA</t>
+  </si>
+  <si>
+    <t>2016025668</t>
+  </si>
+  <si>
+    <t>FELIPE FERREIRA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2016025701</t>
+  </si>
+  <si>
+    <t>LUCAS FELIPE DOMINGUES RIBEIRO</t>
+  </si>
+  <si>
+    <t>2016025710</t>
+  </si>
+  <si>
+    <t>LUCAS FRANCO CORREA SCHALCHER</t>
+  </si>
+  <si>
+    <t>2016025720</t>
+  </si>
+  <si>
+    <t>LUCAS RODRIGUES FERREIRA</t>
+  </si>
+  <si>
+    <t>2016025739</t>
+  </si>
+  <si>
+    <t>LUIZ FERNANDO HOFFMANN LOPES</t>
+  </si>
+  <si>
+    <t>2016025748</t>
+  </si>
+  <si>
+    <t>MARIANA LISBOA DA SILVA</t>
+  </si>
+  <si>
+    <t>2016025757</t>
+  </si>
+  <si>
+    <t>PAMELA NASCIMENTO OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2016025766</t>
+  </si>
+  <si>
+    <t>THIAGO HENRIQUE PINHEIRO PINTO</t>
+  </si>
+  <si>
+    <t>2016025775</t>
+  </si>
+  <si>
+    <t>VITOR TROVAO SARMENTO</t>
+  </si>
+  <si>
+    <t>2016065289</t>
+  </si>
+  <si>
+    <t>CAMILA FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2016064577</t>
+  </si>
+  <si>
+    <t>FELIPE MATIAS DO NASCIMENTO CARDOSO</t>
+  </si>
+  <si>
+    <t>2016065270</t>
+  </si>
+  <si>
+    <t>GUSTAVO ANDRADE MORENO COSTA</t>
+  </si>
+  <si>
+    <t>2016065298</t>
+  </si>
+  <si>
+    <t>JESSICA SERRAO AMARAL</t>
+  </si>
+  <si>
+    <t>2016065304</t>
+  </si>
+  <si>
+    <t>MARY CHRYSTINNE MOREIRA BUNA FERREIRA</t>
+  </si>
+  <si>
+    <t>2016065313</t>
+  </si>
+  <si>
+    <t>MAURO CARDOSO SOUZA</t>
+  </si>
+  <si>
+    <t>JOAO HIGO SOUSA NUNES</t>
+  </si>
+  <si>
+    <t>LEANDRO MASSETTI RIBEIRO OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MARIANA ANDRESSA LUNA PINHEIRO</t>
+  </si>
+  <si>
+    <t>MATEUS BARROS FROTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>MICAEL LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>THAMYLA MARIA DE SOUSA LIMA</t>
+  </si>
+  <si>
+    <t>WALYSSON CARLOS DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JOAO VITOR MIRANDA ROMA</t>
+  </si>
+  <si>
+    <t>2017027934</t>
+  </si>
+  <si>
+    <t>ALCINO ARAUJO NASCIMENTO NETO</t>
+  </si>
+  <si>
+    <t>2017027925</t>
+  </si>
+  <si>
+    <t>AMANDA MORAIS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2017027952</t>
+  </si>
+  <si>
+    <t>CAIO WILLI CORREA BRAGA</t>
+  </si>
+  <si>
+    <t>2017027943</t>
+  </si>
+  <si>
+    <t>2017027980</t>
+  </si>
+  <si>
+    <t>CAYO ROBERTO AZEVEDO CHMIELSWKI</t>
+  </si>
+  <si>
+    <t>2017028074</t>
+  </si>
+  <si>
+    <t>DEBORAH FABRICIA LOPES SANTOS</t>
+  </si>
+  <si>
+    <t>2017028083</t>
+  </si>
+  <si>
+    <t>EMANUELLE DA CONCEIÇÃO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>2017028010</t>
+  </si>
+  <si>
+    <t>FABIO SILVA MARTINS</t>
+  </si>
+  <si>
+    <t>2017027999</t>
+  </si>
+  <si>
+    <t>GABRIEL FELIZARDO COSTA</t>
+  </si>
+  <si>
+    <t>2017028056</t>
+  </si>
+  <si>
+    <t>GIOVANA RABELO CARVALHO</t>
+  </si>
+  <si>
+    <t>2017028000</t>
+  </si>
+  <si>
+    <t>LEANDRO ALMEIDA SANTOS</t>
+  </si>
+  <si>
+    <t>2017028029</t>
+  </si>
+  <si>
+    <t>LUIS GUILHERME VIDAL DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2017028047</t>
+  </si>
+  <si>
+    <t>MARIA BRUNA SOUSA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>2017028065</t>
+  </si>
+  <si>
+    <t>MAURICIO CAVALCANTE CUTRIM FONSECA</t>
+  </si>
+  <si>
+    <t>2017028092</t>
+  </si>
+  <si>
+    <t>POLIANA LIMA ROCHA</t>
+  </si>
+  <si>
+    <t>2017027970</t>
+  </si>
+  <si>
+    <t>RAFAEL BEZERRA SOUSA</t>
+  </si>
+  <si>
+    <t>2017027961</t>
+  </si>
+  <si>
+    <t>VERONICA COSTA SILVEIRA</t>
+  </si>
+  <si>
+    <t>2017069012</t>
+  </si>
+  <si>
+    <t>ADRIANO RICARDO LINHARES</t>
+  </si>
+  <si>
+    <t>2017069021</t>
+  </si>
+  <si>
+    <t>ALCINEIDE DUTRA PESSOA</t>
+  </si>
+  <si>
+    <t>2017069030</t>
+  </si>
+  <si>
+    <t>2017069040</t>
+  </si>
+  <si>
+    <t>ARIEL POLICARPO DE CARVALHO LIMA</t>
+  </si>
+  <si>
+    <t>2017069068</t>
+  </si>
+  <si>
+    <t>ARTUR GOES DOS SANTOS JUNIOR</t>
+  </si>
+  <si>
+    <t>2017069077</t>
+  </si>
+  <si>
+    <t>CAMILA TEIXEIRA LOIOLA</t>
+  </si>
+  <si>
+    <t>2017069086</t>
+  </si>
+  <si>
+    <t>DIEGO VINICIUS DUTRA MACIEL</t>
+  </si>
+  <si>
+    <t>2017069095</t>
+  </si>
+  <si>
+    <t>FAUSE ELOUF SIMAO NETO</t>
+  </si>
+  <si>
+    <t>2017069101</t>
+  </si>
+  <si>
+    <t>FELIPE ANDERSON SILVA DE AQUINO</t>
+  </si>
+  <si>
+    <t>2017069110</t>
+  </si>
+  <si>
+    <t>FELIPE AUGUSTO ARAUJO DE MAGALHAES</t>
+  </si>
+  <si>
+    <t>2017069120</t>
+  </si>
+  <si>
+    <t>FRANKLIN DELANO DO NASCIMENTO COSTA</t>
+  </si>
+  <si>
+    <t>2017069139</t>
+  </si>
+  <si>
+    <t>IANNA KAROLINE MARTINS GUIMARAES FARIAS</t>
+  </si>
+  <si>
+    <t>2017069148</t>
+  </si>
+  <si>
+    <t>IGOR ADAN GONCALVES SILVA</t>
+  </si>
+  <si>
+    <t>2017069157</t>
+  </si>
+  <si>
+    <t>ITAPOA REGO DA FONSECA FILHO</t>
+  </si>
+  <si>
+    <t>2017070336</t>
+  </si>
+  <si>
+    <t>IVAN CARLOS GOIS RIBEIRO JUNIOR</t>
+  </si>
+  <si>
+    <t>2017069184</t>
+  </si>
+  <si>
+    <t>JORGE IAGO MELO DUAILIBE</t>
+  </si>
+  <si>
+    <t>2017069193</t>
+  </si>
+  <si>
+    <t>LAURO MANDELA SILVA CRUZ</t>
+  </si>
+  <si>
+    <t>2017069200</t>
+  </si>
+  <si>
+    <t>LEONARDO ARAUJO MARTINS</t>
+  </si>
+  <si>
+    <t>2017069219</t>
+  </si>
+  <si>
+    <t>LUAN ALMEIDA SANTOS</t>
+  </si>
+  <si>
+    <t>2017069228</t>
+  </si>
+  <si>
+    <t>MARIANA DOS SANTOS REIS</t>
+  </si>
+  <si>
+    <t>2017029142</t>
+  </si>
+  <si>
+    <t>OSMAR COELHO DE SOUSA NETO</t>
+  </si>
+  <si>
+    <t>2017069237</t>
+  </si>
+  <si>
+    <t>PABLO RAMALHO LUCIO</t>
+  </si>
+  <si>
+    <t>2017069246</t>
+  </si>
+  <si>
+    <t>PAULO HENRIQUE DA CONCEICAO DE SOUSA</t>
+  </si>
+  <si>
+    <t>2017069255</t>
+  </si>
+  <si>
+    <t>PEDRO FERNANDES DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>2017069264</t>
+  </si>
+  <si>
+    <t>PEDRO LICERIO RODRIGUES VIEGAS</t>
+  </si>
+  <si>
+    <t>2017069282</t>
+  </si>
+  <si>
+    <t>PRICILA RIBEIRO DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>2017069291</t>
+  </si>
+  <si>
+    <t>RAMON EDUARDO SALLES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2017069308</t>
+  </si>
+  <si>
+    <t>ROMULO DA CONCEICAO DO ROSARIO</t>
+  </si>
+  <si>
+    <t>2017069326</t>
+  </si>
+  <si>
+    <t>SARVIA SILVA SOUSA</t>
+  </si>
+  <si>
+    <t>2017069335</t>
+  </si>
+  <si>
+    <t>THAIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2017069344</t>
+  </si>
+  <si>
+    <t>VICTOR LINDOSO DA NOBREGA</t>
+  </si>
+  <si>
+    <t>2017069353</t>
+  </si>
+  <si>
+    <t>VICTOR MATHEUS PAIVA VIANNA</t>
+  </si>
+  <si>
+    <t>2017069362</t>
+  </si>
+  <si>
+    <t>VINICIUS MOURA SILVA</t>
+  </si>
+  <si>
+    <t>2017069371</t>
+  </si>
+  <si>
+    <t>YASMIN ALVARES MARQUES VALE</t>
+  </si>
+  <si>
+    <t>2018019051</t>
+  </si>
+  <si>
+    <t>ADRIANO LEANDRO DE ARAUJO</t>
+  </si>
+  <si>
+    <t>2018020910</t>
+  </si>
+  <si>
+    <t>AILTON CARLOS SANTOS BRANDAO</t>
+  </si>
+  <si>
+    <t>2018021102</t>
+  </si>
+  <si>
+    <t>ALLYSSON JOSE SILVA FREIRE</t>
+  </si>
+  <si>
+    <t>2018021425</t>
+  </si>
+  <si>
+    <t>AMANDA CAROLINE DA SILVA BUNA</t>
+  </si>
+  <si>
+    <t>2018021748</t>
+  </si>
+  <si>
+    <t>ANDRE RICK GONCALVES DIAS</t>
+  </si>
+  <si>
+    <t>2018021757</t>
+  </si>
+  <si>
+    <t>ANDRIELY KASSIA VERDE FERNANDES</t>
+  </si>
+  <si>
+    <t>2018021828</t>
+  </si>
+  <si>
+    <t>ARTUR LOPES RIBEIRO</t>
+  </si>
+  <si>
+    <t>2018021944</t>
+  </si>
+  <si>
+    <t>CAIO RODRIGUES DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>2018022674</t>
+  </si>
+  <si>
+    <t>ELDER SULIVAN SILVA DE SA</t>
+  </si>
+  <si>
+    <t>2018022880</t>
+  </si>
+  <si>
+    <t>EVANNY GRACIELLY LIMA RAMOS</t>
+  </si>
+  <si>
+    <t>2018022899</t>
+  </si>
+  <si>
+    <t>GIVANILDO GABRIEL DE MIRANDA LIMA</t>
+  </si>
+  <si>
+    <t>2018022905</t>
+  </si>
+  <si>
+    <t>HARIANE HAIDA SOUZA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>2018022914</t>
+  </si>
+  <si>
+    <t>HELLEN SAND VIANA CARVALHO</t>
+  </si>
+  <si>
+    <t>2018022923</t>
+  </si>
+  <si>
+    <t>ISABELA SOUSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2018022932</t>
+  </si>
+  <si>
+    <t>JEFFERSON MOURA SANTOS</t>
+  </si>
+  <si>
+    <t>2018022941</t>
+  </si>
+  <si>
+    <t>JOAO VICTOR SERRAO FERNANDES</t>
+  </si>
+  <si>
+    <t>2018022950</t>
+  </si>
+  <si>
+    <t>JORGE HENRIQUE AGUIAR DA SILVA</t>
+  </si>
+  <si>
+    <t>2018022960</t>
+  </si>
+  <si>
+    <t>JULIANA TUANE DE LIMA CORDEIRO</t>
+  </si>
+  <si>
+    <t>2018022979</t>
+  </si>
+  <si>
+    <t>KARINE MARINHO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2018022988</t>
+  </si>
+  <si>
+    <t>LARA CRUZ COIMBRA</t>
+  </si>
+  <si>
+    <t>2018022997</t>
+  </si>
+  <si>
+    <t>LIA GONCALVES BARROS</t>
+  </si>
+  <si>
+    <t>2018023009</t>
+  </si>
+  <si>
+    <t>LUCAS CAMELO MARTINS</t>
+  </si>
+  <si>
+    <t>2018027410</t>
+  </si>
+  <si>
+    <t>LUCAS EUGENIO RODRIGUES</t>
+  </si>
+  <si>
+    <t>2018023116</t>
+  </si>
+  <si>
+    <t>2018027400</t>
+  </si>
+  <si>
+    <t>MARCIA REGINA GOMES DURAES</t>
+  </si>
+  <si>
+    <t>2018023036</t>
+  </si>
+  <si>
+    <t>MARCOS VINICIUS BRITO DUARTE</t>
+  </si>
+  <si>
+    <t>2018023045</t>
+  </si>
+  <si>
+    <t>MATHEUS BAETA COUTINHO</t>
+  </si>
+  <si>
+    <t>2018023054</t>
+  </si>
+  <si>
+    <t>RODRIGO AZEVEDO PEREIRA</t>
+  </si>
+  <si>
+    <t>2018023063</t>
+  </si>
+  <si>
+    <t>SAMIA REGINA FERREIRA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2018023072</t>
+  </si>
+  <si>
+    <t>TAYANE DOS ANJOS COSTA</t>
+  </si>
+  <si>
+    <t>2018023081</t>
+  </si>
+  <si>
+    <t>VICTOR GASPAR SILVA E SILVA</t>
+  </si>
+  <si>
+    <t>2018023090</t>
+  </si>
+  <si>
+    <t>WILLIAN DE JESUS MELONIO PENHA</t>
+  </si>
+  <si>
+    <t>2018023107</t>
+  </si>
+  <si>
+    <t>YASMIN KARYNNE LEITE COSTA</t>
+  </si>
+  <si>
+    <t>2018069868</t>
+  </si>
+  <si>
+    <t>BRENDA AMORIM BESERRA</t>
+  </si>
+  <si>
+    <t>2018067442</t>
+  </si>
+  <si>
+    <t>BRUNO RAFAEL CARVALHO COELHO</t>
+  </si>
+  <si>
+    <t>2018067522</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO SOUSA SILVA</t>
+  </si>
+  <si>
+    <t>2018069877</t>
+  </si>
+  <si>
+    <t>DENIS WEVERTON MONTEIRO FERRO</t>
+  </si>
+  <si>
+    <t>2018067569</t>
+  </si>
+  <si>
+    <t>DEYVISSON RIBEIRO PIRES</t>
+  </si>
+  <si>
+    <t>2018067424</t>
+  </si>
+  <si>
+    <t>FERNANDA BATALHA DE MELLO</t>
+  </si>
+  <si>
+    <t>2018067602</t>
+  </si>
+  <si>
+    <t>GLAUCIELLE DE CASTRO SILVA</t>
+  </si>
+  <si>
+    <t>2018067460</t>
+  </si>
+  <si>
+    <t>GUSTAVO ANTONIO SOUSA VIANA</t>
+  </si>
+  <si>
+    <t>2018067264</t>
+  </si>
+  <si>
+    <t>INDALECIO VALE DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>2018067433</t>
+  </si>
+  <si>
+    <t>IVO PEREZ COELHO SALDANHA</t>
+  </si>
+  <si>
+    <t>2018067406</t>
+  </si>
+  <si>
+    <t>JOSE ALAN KARDEC ALVES TEIXEIRA NETO</t>
+  </si>
+  <si>
+    <t>2018067540</t>
+  </si>
+  <si>
+    <t>JOSE OTAVIO DO NASCIMENTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2018067451</t>
+  </si>
+  <si>
+    <t>LEDA ANTONIA BRANDÃO BORGES</t>
+  </si>
+  <si>
+    <t>2018067550</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE SOUSA</t>
+  </si>
+  <si>
+    <t>2018067513</t>
+  </si>
+  <si>
+    <t>LYSLA RAVENNA SANTOS PIMENTEL</t>
+  </si>
+  <si>
+    <t>2018067578</t>
+  </si>
+  <si>
+    <t>MANOELE RIBEIRO SANTOS</t>
+  </si>
+  <si>
+    <t>2018067596</t>
+  </si>
+  <si>
+    <t>PATRICK LUAN OLIVEIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>2018069859</t>
+  </si>
+  <si>
+    <t>RONALD COSTA GARCIA</t>
+  </si>
+  <si>
+    <t>2018069840</t>
+  </si>
+  <si>
+    <t>SEDAN FILIPH GUSMAO SILVA</t>
+  </si>
+  <si>
+    <t>2018067415</t>
+  </si>
+  <si>
+    <t>THAYNA DE FATIMA FROZ GOMES</t>
+  </si>
+  <si>
+    <t>2018067504</t>
+  </si>
+  <si>
+    <t>VINICIUS MENDES BARBOSA</t>
+  </si>
+  <si>
+    <t>2018070054</t>
+  </si>
+  <si>
+    <t>WANDERSSON LIMA PINHEIRO</t>
+  </si>
+  <si>
+    <t>2018067489</t>
+  </si>
+  <si>
+    <t>YAGO FRANCISCO PEREIRA CALVET</t>
+  </si>
+  <si>
+    <t>2016065350</t>
+  </si>
+  <si>
+    <t>ADRIANO MITSUO GOTO</t>
+  </si>
+  <si>
+    <t>2017027792</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE DA SILVA COSTA</t>
+  </si>
+  <si>
+    <t>2017027783</t>
+  </si>
+  <si>
+    <t>CLAUDIONOR FERREIRA PEREIRA JUNIOR</t>
+  </si>
+  <si>
+    <t>2017069059</t>
+  </si>
+  <si>
+    <t>ARTHUR VINICIUS SOUSA SILVA</t>
+  </si>
+  <si>
+    <t>2017069175</t>
+  </si>
+  <si>
+    <t>JOAO VITOR REGO MUNIZ</t>
+  </si>
+  <si>
+    <t>2017069273</t>
+  </si>
+  <si>
+    <t>VICTOR GUSTAVO RAMOS COSTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2018019033</t>
+  </si>
+  <si>
+    <t>JULIE BRENDA SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>2018019042</t>
+  </si>
+  <si>
+    <t>NEILTON DOS SANTOS SEGUINS COSTA</t>
+  </si>
+  <si>
+    <t>2018060728</t>
+  </si>
+  <si>
+    <t>ANDERSON SERRA CAMARA</t>
+  </si>
+  <si>
+    <t>2018069886</t>
+  </si>
+  <si>
+    <t>ANIELLY FERNANDA REIS PEREIRA</t>
+  </si>
+  <si>
+    <t>2018060737</t>
+  </si>
+  <si>
+    <t>HUDSON DOUGLAS SILVA MORAIS</t>
+  </si>
+  <si>
+    <t>2018069895</t>
+  </si>
+  <si>
+    <t>LUCIANO DOS SANTOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2018069901</t>
+  </si>
+  <si>
+    <t>REGINA DE NAZARÉ CALDEIRAS</t>
+  </si>
+  <si>
+    <t>2016065340</t>
+  </si>
+  <si>
+    <t>ANTONIO AUGUSTO DE LIMA BAPTISTA</t>
+  </si>
+  <si>
+    <t>2016065322</t>
+  </si>
+  <si>
+    <t>MOISES ROCHA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2016065331</t>
+  </si>
+  <si>
+    <t>RAYANNE MARIA CUNHA SILVEIRA</t>
+  </si>
+  <si>
+    <t>2017027872</t>
+  </si>
+  <si>
+    <t>2017027818</t>
+  </si>
+  <si>
+    <t>2017027845</t>
+  </si>
+  <si>
+    <t>2017027881</t>
+  </si>
+  <si>
+    <t>2017027863</t>
+  </si>
+  <si>
+    <t>2017027809</t>
+  </si>
+  <si>
+    <t>2017027854</t>
+  </si>
+  <si>
+    <t>2017069166</t>
+  </si>
+  <si>
+    <t>2018018976</t>
+  </si>
+  <si>
+    <t>ALINE MAYARA SANTOS COSTA</t>
+  </si>
+  <si>
+    <t>2018018994</t>
+  </si>
+  <si>
+    <t>LEONARDO VENANCIO CORREIA</t>
+  </si>
+  <si>
+    <t>2018026127</t>
+  </si>
+  <si>
+    <t>2018019006</t>
+  </si>
+  <si>
+    <t>MARIA LUDMILLA SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2018060700</t>
+  </si>
+  <si>
+    <t>JOSE GILBERTO VASCONCELOS JUNIOR</t>
+  </si>
+  <si>
+    <t>2018060719</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO DE ARAUJO ARANHA JUNIOR</t>
+  </si>
+  <si>
+    <t>2017026543</t>
+  </si>
+  <si>
+    <t>AMANDA LIMA MORAES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>2017027774</t>
+  </si>
+  <si>
+    <t>LETÍCIA FERNANDA BRITO MORAES</t>
+  </si>
+  <si>
+    <t>2017026525</t>
+  </si>
+  <si>
+    <t>PAULO SERGIO DE JESUS VILELA</t>
+  </si>
+  <si>
+    <t>2017026534</t>
+  </si>
+  <si>
+    <t>RAISSA MENDES SILVA</t>
+  </si>
+  <si>
+    <t>2018018840</t>
+  </si>
+  <si>
+    <t>CARLA JUNIELY DOS SANTOS LIMA</t>
+  </si>
+  <si>
+    <t>2018018869</t>
+  </si>
+  <si>
+    <t>HALANA TEREZA MARQUES DE JESUS AMBROSIO</t>
+  </si>
+  <si>
+    <t>2018018887</t>
+  </si>
+  <si>
+    <t>JESSICA PIRES FERNANDES SILVA</t>
+  </si>
+  <si>
+    <t>2018018896</t>
+  </si>
+  <si>
+    <t>RAISSA SILVA FONSECA</t>
+  </si>
+  <si>
+    <t>2018018902</t>
+  </si>
+  <si>
+    <t>VICTOR ANTONIO SEGUINS FERREIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,6 +2490,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1604,7 +2570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1617,9 +2583,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382:C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,10 +2912,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>139</v>
@@ -1960,10 +2923,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>139</v>
@@ -1971,10 +2934,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>139</v>
@@ -1982,10 +2945,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>503</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>139</v>
@@ -1993,10 +2956,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>139</v>
@@ -2004,10 +2967,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>139</v>
@@ -2015,10 +2978,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>139</v>
@@ -2026,10 +2989,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>139</v>
@@ -2037,10 +3000,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>513</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>139</v>
@@ -2048,10 +3011,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>515</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>139</v>
@@ -2059,10 +3022,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>139</v>
@@ -2070,10 +3033,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>519</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>139</v>
@@ -2081,10 +3044,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>139</v>
@@ -2092,10 +3055,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>523</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>139</v>
@@ -2103,10 +3066,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>525</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>139</v>
@@ -2114,10 +3077,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>527</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>139</v>
@@ -2125,10 +3088,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>537</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>139</v>
@@ -2136,10 +3099,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>139</v>
@@ -2147,10 +3110,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>541</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>139</v>
@@ -2158,10 +3121,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>471</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>139</v>
@@ -2169,10 +3132,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>544</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>139</v>
@@ -2180,10 +3143,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>139</v>
@@ -2191,10 +3154,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>547</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>548</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>139</v>
@@ -2202,10 +3165,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>550</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>139</v>
@@ -2213,10 +3176,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>551</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>552</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>139</v>
@@ -2224,10 +3187,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>553</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>554</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>139</v>
@@ -2235,10 +3198,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>555</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>556</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>139</v>
@@ -2246,10 +3209,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>557</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>558</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>139</v>
@@ -2257,10 +3220,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>559</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>560</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>139</v>
@@ -2268,10 +3231,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>561</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>562</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>139</v>
@@ -2279,10 +3242,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>563</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>564</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>139</v>
@@ -2290,10 +3253,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>565</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>566</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>139</v>
@@ -2301,10 +3264,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>567</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>568</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>139</v>
@@ -2312,10 +3275,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>569</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>570</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>139</v>
@@ -2323,10 +3286,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>572</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>139</v>
@@ -2334,10 +3297,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>573</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>442</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>139</v>
@@ -2345,10 +3308,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>574</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>575</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>139</v>
@@ -2356,10 +3319,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>139</v>
@@ -2367,10 +3330,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>139</v>
@@ -2378,10 +3341,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>139</v>
@@ -2389,10 +3352,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>583</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>139</v>
@@ -2400,10 +3363,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>585</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>139</v>
@@ -2411,10 +3374,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>586</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>139</v>
@@ -2422,10 +3385,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>588</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>589</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>139</v>
@@ -2433,10 +3396,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>591</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>139</v>
@@ -2444,10 +3407,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>592</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>593</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>139</v>
@@ -2455,10 +3418,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>594</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>595</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>139</v>
@@ -2466,10 +3429,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>596</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>597</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>139</v>
@@ -2477,10 +3440,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>598</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>139</v>
@@ -2488,10 +3451,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>139</v>
@@ -2499,10 +3462,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>602</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>603</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>139</v>
@@ -2510,10 +3473,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>604</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>605</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>139</v>
@@ -2521,10 +3484,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>606</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>607</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>139</v>
@@ -2532,10 +3495,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>608</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>609</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>139</v>
@@ -2543,10 +3506,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>611</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>139</v>
@@ -2554,10 +3517,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>612</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>613</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>139</v>
@@ -2565,10 +3528,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>614</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>615</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>139</v>
@@ -2576,10 +3539,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>616</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>617</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>139</v>
@@ -2587,10 +3550,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>618</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>619</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>139</v>
@@ -2598,10 +3561,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>621</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>139</v>
@@ -2609,10 +3572,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>622</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>623</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>139</v>
@@ -2620,10 +3583,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>624</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>625</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>139</v>
@@ -2631,10 +3594,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>626</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>627</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>139</v>
@@ -2642,10 +3605,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>628</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>629</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>139</v>
@@ -2653,10 +3616,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>630</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>631</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>139</v>
@@ -2664,10 +3627,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>632</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>633</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>139</v>
@@ -2675,10 +3638,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>634</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>139</v>
@@ -2686,10 +3649,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>636</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>637</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>139</v>
@@ -2697,10 +3660,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>638</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>639</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>139</v>
@@ -2708,10 +3671,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>640</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>641</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>139</v>
@@ -2719,10 +3682,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>642</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>643</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>139</v>
@@ -2730,10 +3693,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>644</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>645</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>139</v>
@@ -2741,10 +3704,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>646</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>647</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>139</v>
@@ -2752,10 +3715,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>648</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>649</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>139</v>
@@ -2763,10 +3726,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>650</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>651</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>139</v>
@@ -2774,10 +3737,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>652</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>653</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>139</v>
@@ -2785,10 +3748,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>654</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>655</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>139</v>
@@ -2796,10 +3759,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>656</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>657</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>139</v>
@@ -2807,10 +3770,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>658</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>659</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>139</v>
@@ -2818,10 +3781,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>660</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>661</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>139</v>
@@ -2829,10 +3792,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>662</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>663</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>139</v>
@@ -2840,10 +3803,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>664</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>665</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>139</v>
@@ -2851,10 +3814,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>139</v>
@@ -2862,10 +3825,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>668</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>139</v>
@@ -2873,10 +3836,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>670</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>671</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>139</v>
@@ -2884,10 +3847,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>672</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>673</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>139</v>
@@ -2895,10 +3858,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>674</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>675</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>139</v>
@@ -2906,10 +3869,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>676</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>677</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>139</v>
@@ -2917,10 +3880,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>678</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>679</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>139</v>
@@ -2928,10 +3891,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>680</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>681</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>139</v>
@@ -2939,10 +3902,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>682</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>505</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>139</v>
@@ -2950,10 +3913,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>683</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>684</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>139</v>
@@ -2961,10 +3924,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>685</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>686</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>139</v>
@@ -2972,10 +3935,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>687</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>688</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>139</v>
@@ -2983,10 +3946,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>689</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>690</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>139</v>
@@ -2994,10 +3957,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>691</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>692</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>139</v>
@@ -3005,10 +3968,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>693</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>694</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>139</v>
@@ -3016,10 +3979,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>695</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>696</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>139</v>
@@ -3027,10 +3990,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>697</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>698</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>139</v>
@@ -3038,10 +4001,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>699</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>700</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>139</v>
@@ -3049,10 +4012,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>701</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>702</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>139</v>
@@ -3060,10 +4023,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>703</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>704</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>139</v>
@@ -3071,10 +4034,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>705</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>706</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>139</v>
@@ -3082,10 +4045,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>707</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>708</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>139</v>
@@ -3093,10 +4056,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>709</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>710</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>139</v>
@@ -3104,10 +4067,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>711</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>712</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>139</v>
@@ -3115,10 +4078,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>713</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>714</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>139</v>
@@ -3126,10 +4089,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>715</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>716</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>139</v>
@@ -3137,10 +4100,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>717</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>718</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>139</v>
@@ -3148,10 +4111,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>719</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>720</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>139</v>
@@ -3159,10 +4122,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>721</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>722</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>139</v>
@@ -3170,10 +4133,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>723</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>724</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>139</v>
@@ -3181,10 +4144,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>725</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>726</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>139</v>
@@ -3192,10 +4155,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>727</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>728</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>139</v>
@@ -3203,10 +4166,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>729</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>730</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>139</v>
@@ -3214,10 +4177,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>731</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>732</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>139</v>
@@ -3225,10 +4188,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>733</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>734</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>139</v>
@@ -3236,10 +4199,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>735</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>736</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>139</v>
@@ -3247,10 +4210,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>737</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>738</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>139</v>
@@ -3258,10 +4221,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>739</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>740</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>139</v>
@@ -3269,10 +4232,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>741</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>742</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>139</v>
@@ -3280,10 +4243,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>743</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>744</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>139</v>
@@ -3291,10 +4254,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>745</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>746</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>139</v>
@@ -3302,10 +4265,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>139</v>
@@ -3313,10 +4276,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>139</v>
@@ -3324,10 +4287,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>139</v>
@@ -3335,10 +4298,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>139</v>
@@ -3346,10 +4309,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>139</v>
@@ -3357,10 +4320,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>139</v>
@@ -3368,10 +4331,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>139</v>
@@ -3379,10 +4342,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>139</v>
@@ -3390,10 +4353,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>139</v>
@@ -3401,10 +4364,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>139</v>
@@ -3412,10 +4375,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>139</v>
@@ -3423,10 +4386,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>139</v>
@@ -3434,10 +4397,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>139</v>
@@ -3445,10 +4408,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>139</v>
@@ -3456,10 +4419,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>139</v>
@@ -3467,10 +4430,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>139</v>
@@ -3478,10 +4441,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>139</v>
@@ -3489,10 +4452,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>139</v>
@@ -3500,10 +4463,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>139</v>
@@ -3511,10 +4474,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>139</v>
@@ -3522,10 +4485,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>139</v>
@@ -3533,10 +4496,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>139</v>
@@ -3544,10 +4507,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>139</v>
@@ -3555,10 +4518,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>139</v>
@@ -3566,10 +4529,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>139</v>
@@ -3577,10 +4540,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>53</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>139</v>
@@ -3588,10 +4551,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>139</v>
@@ -3599,10 +4562,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>57</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>139</v>
@@ -3610,10 +4573,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>59</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>139</v>
@@ -3621,10 +4584,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>61</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>139</v>
@@ -3632,10 +4595,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>139</v>
@@ -3643,10 +4606,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>139</v>
@@ -3654,10 +4617,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>139</v>
@@ -3665,10 +4628,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>139</v>
@@ -3676,973 +4639,2757 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>87</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="B174" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>109</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>359</v>
+        <v>110</v>
       </c>
       <c r="B179" t="s">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>115</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>367</v>
+        <v>118</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>371</v>
+        <v>122</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
+        <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="B186" t="s">
-        <v>374</v>
+        <v>125</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>129</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>379</v>
+        <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>380</v>
+        <v>131</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
+        <v>133</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>383</v>
+        <v>134</v>
       </c>
       <c r="B191" t="s">
-        <v>384</v>
+        <v>135</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>141</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>389</v>
+        <v>142</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>391</v>
+        <v>144</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>394</v>
+        <v>146</v>
       </c>
       <c r="B196" t="s">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="B197" t="s">
-        <v>397</v>
+        <v>149</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="B198" t="s">
-        <v>399</v>
+        <v>151</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>400</v>
+        <v>152</v>
       </c>
       <c r="B199" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>403</v>
+        <v>155</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>404</v>
+        <v>156</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>157</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>406</v>
+        <v>158</v>
       </c>
       <c r="B202" t="s">
-        <v>407</v>
+        <v>159</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>408</v>
+        <v>160</v>
       </c>
       <c r="B203" t="s">
-        <v>409</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>410</v>
+        <v>162</v>
       </c>
       <c r="B204" t="s">
-        <v>411</v>
+        <v>163</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>412</v>
+        <v>164</v>
       </c>
       <c r="B205" t="s">
-        <v>413</v>
+        <v>165</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="B206" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>416</v>
+        <v>168</v>
       </c>
       <c r="B207" t="s">
-        <v>417</v>
+        <v>169</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="B208" t="s">
-        <v>419</v>
+        <v>171</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>421</v>
+        <v>172</v>
       </c>
       <c r="B209" t="s">
-        <v>422</v>
+        <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>423</v>
+        <v>174</v>
       </c>
       <c r="B210" t="s">
-        <v>424</v>
+        <v>175</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>425</v>
+        <v>176</v>
       </c>
       <c r="B211" t="s">
-        <v>426</v>
+        <v>177</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>427</v>
+        <v>178</v>
       </c>
       <c r="B212" t="s">
-        <v>428</v>
+        <v>179</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="B213" t="s">
-        <v>430</v>
+        <v>181</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>431</v>
+        <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>432</v>
+        <v>183</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>433</v>
+        <v>184</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>185</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>435</v>
+        <v>186</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>187</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>437</v>
+        <v>188</v>
       </c>
       <c r="B217" t="s">
-        <v>438</v>
+        <v>189</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="B218" t="s">
-        <v>440</v>
+        <v>191</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
-        <v>2023027733</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>384</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>192</v>
+      </c>
+      <c r="B219" t="s">
+        <v>193</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>441</v>
+        <v>194</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>457</v>
+        <v>195</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>443</v>
+        <v>196</v>
       </c>
       <c r="B221" t="s">
-        <v>444</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>457</v>
+        <v>197</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>445</v>
+        <v>198</v>
       </c>
       <c r="B222" t="s">
-        <v>446</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>457</v>
+        <v>199</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>447</v>
+        <v>200</v>
       </c>
       <c r="B223" t="s">
-        <v>448</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>457</v>
+        <v>201</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>450</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>457</v>
+        <v>203</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>451</v>
+        <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>457</v>
+        <v>205</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="B226" t="s">
-        <v>454</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>457</v>
+        <v>207</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>455</v>
+        <v>208</v>
       </c>
       <c r="B227" t="s">
-        <v>456</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>457</v>
+        <v>209</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>458</v>
+        <v>210</v>
       </c>
       <c r="B228" t="s">
-        <v>459</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>457</v>
+        <v>211</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>460</v>
+        <v>212</v>
       </c>
       <c r="B229" t="s">
-        <v>461</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>457</v>
+        <v>213</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>462</v>
+        <v>214</v>
       </c>
       <c r="B230" t="s">
-        <v>463</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>457</v>
+        <v>215</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>464</v>
+        <v>216</v>
       </c>
       <c r="B231" t="s">
-        <v>465</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>457</v>
+        <v>217</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
-        <v>467</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>457</v>
+        <v>219</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>469</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>457</v>
+        <v>221</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>470</v>
+        <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>471</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>457</v>
+        <v>223</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>472</v>
+        <v>224</v>
       </c>
       <c r="B235" t="s">
-        <v>473</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>457</v>
+        <v>225</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="B236" t="s">
-        <v>475</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>457</v>
+        <v>227</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>476</v>
+        <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>477</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>457</v>
+        <v>229</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>478</v>
+        <v>230</v>
       </c>
       <c r="B238" t="s">
-        <v>479</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>457</v>
+        <v>231</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>480</v>
+        <v>232</v>
       </c>
       <c r="B239" t="s">
-        <v>481</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>457</v>
+        <v>233</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="B240" t="s">
-        <v>483</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>457</v>
+        <v>235</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>484</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s">
-        <v>485</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>457</v>
+        <v>237</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>487</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>457</v>
+        <v>239</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>488</v>
+        <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>489</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>457</v>
+        <v>241</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>490</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>491</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>457</v>
+        <v>243</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>492</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>493</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>457</v>
+        <v>245</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" t="s">
+        <v>255</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" t="s">
+        <v>257</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" t="s">
+        <v>259</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" t="s">
+        <v>261</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" t="s">
+        <v>263</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>264</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>266</v>
+      </c>
+      <c r="B256" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>268</v>
+      </c>
+      <c r="B257" t="s">
+        <v>269</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>270</v>
+      </c>
+      <c r="B258" t="s">
+        <v>271</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>274</v>
+      </c>
+      <c r="B260" t="s">
+        <v>275</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>276</v>
+      </c>
+      <c r="B261" t="s">
+        <v>277</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>278</v>
+      </c>
+      <c r="B262" t="s">
+        <v>279</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>280</v>
+      </c>
+      <c r="B263" t="s">
+        <v>281</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>282</v>
+      </c>
+      <c r="B264" t="s">
+        <v>283</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>284</v>
+      </c>
+      <c r="B265" t="s">
+        <v>285</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>286</v>
+      </c>
+      <c r="B266" t="s">
+        <v>287</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>288</v>
+      </c>
+      <c r="B267" t="s">
+        <v>289</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>290</v>
+      </c>
+      <c r="B268" t="s">
+        <v>291</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>292</v>
+      </c>
+      <c r="B269" t="s">
+        <v>293</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270" t="s">
+        <v>295</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>296</v>
+      </c>
+      <c r="B271" t="s">
+        <v>297</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>298</v>
+      </c>
+      <c r="B272" t="s">
+        <v>299</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>300</v>
+      </c>
+      <c r="B273" t="s">
+        <v>301</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>302</v>
+      </c>
+      <c r="B274" t="s">
+        <v>303</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>304</v>
+      </c>
+      <c r="B275" t="s">
+        <v>305</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>306</v>
+      </c>
+      <c r="B276" t="s">
+        <v>307</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>308</v>
+      </c>
+      <c r="B277" t="s">
+        <v>309</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>310</v>
+      </c>
+      <c r="B278" t="s">
+        <v>311</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>312</v>
+      </c>
+      <c r="B279" t="s">
+        <v>313</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>314</v>
+      </c>
+      <c r="B280" t="s">
+        <v>315</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>316</v>
+      </c>
+      <c r="B281" t="s">
+        <v>317</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>747</v>
+      </c>
+      <c r="B282" t="s">
+        <v>748</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>749</v>
+      </c>
+      <c r="B283" t="s">
+        <v>750</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>751</v>
+      </c>
+      <c r="B284" t="s">
+        <v>752</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>753</v>
+      </c>
+      <c r="B285" t="s">
+        <v>754</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>755</v>
+      </c>
+      <c r="B286" t="s">
+        <v>756</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>757</v>
+      </c>
+      <c r="B287" t="s">
+        <v>758</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>759</v>
+      </c>
+      <c r="B288" t="s">
+        <v>760</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>761</v>
+      </c>
+      <c r="B289" t="s">
+        <v>762</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>763</v>
+      </c>
+      <c r="B290" t="s">
+        <v>764</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>765</v>
+      </c>
+      <c r="B291" t="s">
+        <v>766</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>767</v>
+      </c>
+      <c r="B292" t="s">
+        <v>768</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>769</v>
+      </c>
+      <c r="B293" t="s">
+        <v>770</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>771</v>
+      </c>
+      <c r="B294" t="s">
+        <v>772</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>318</v>
+      </c>
+      <c r="B295" t="s">
+        <v>319</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>320</v>
+      </c>
+      <c r="B296" t="s">
+        <v>321</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>322</v>
+      </c>
+      <c r="B297" t="s">
+        <v>323</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>324</v>
+      </c>
+      <c r="B298" t="s">
+        <v>325</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>326</v>
+      </c>
+      <c r="B299" t="s">
+        <v>327</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>328</v>
+      </c>
+      <c r="B300" t="s">
+        <v>329</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>330</v>
+      </c>
+      <c r="B301" t="s">
+        <v>331</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>332</v>
+      </c>
+      <c r="B302" t="s">
+        <v>333</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>334</v>
+      </c>
+      <c r="B303" t="s">
+        <v>335</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>336</v>
+      </c>
+      <c r="B304" t="s">
+        <v>337</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>339</v>
+      </c>
+      <c r="B305" t="s">
+        <v>340</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>341</v>
+      </c>
+      <c r="B306" t="s">
+        <v>342</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>343</v>
+      </c>
+      <c r="B307" t="s">
+        <v>344</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>345</v>
+      </c>
+      <c r="B308" t="s">
+        <v>346</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>347</v>
+      </c>
+      <c r="B309" t="s">
+        <v>348</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>349</v>
+      </c>
+      <c r="B310" t="s">
+        <v>350</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>351</v>
+      </c>
+      <c r="B311" t="s">
+        <v>352</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>353</v>
+      </c>
+      <c r="B312" t="s">
+        <v>354</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>355</v>
+      </c>
+      <c r="B313" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>357</v>
+      </c>
+      <c r="B314" t="s">
+        <v>358</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>359</v>
+      </c>
+      <c r="B315" t="s">
+        <v>360</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>361</v>
+      </c>
+      <c r="B316" t="s">
+        <v>362</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>363</v>
+      </c>
+      <c r="B317" t="s">
+        <v>364</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>365</v>
+      </c>
+      <c r="B318" t="s">
+        <v>366</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>367</v>
+      </c>
+      <c r="B319" t="s">
+        <v>368</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>369</v>
+      </c>
+      <c r="B320" t="s">
+        <v>370</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>371</v>
+      </c>
+      <c r="B321" t="s">
+        <v>372</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>373</v>
+      </c>
+      <c r="B322" t="s">
+        <v>374</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>375</v>
+      </c>
+      <c r="B323" t="s">
+        <v>376</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>377</v>
+      </c>
+      <c r="B324" t="s">
+        <v>378</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>379</v>
+      </c>
+      <c r="B325" t="s">
+        <v>380</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>381</v>
+      </c>
+      <c r="B326" t="s">
+        <v>382</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>383</v>
+      </c>
+      <c r="B327" t="s">
+        <v>384</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>385</v>
+      </c>
+      <c r="B328" t="s">
+        <v>386</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>387</v>
+      </c>
+      <c r="B329" t="s">
+        <v>388</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>389</v>
+      </c>
+      <c r="B330" t="s">
+        <v>390</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>391</v>
+      </c>
+      <c r="B331" t="s">
+        <v>392</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>394</v>
+      </c>
+      <c r="B332" t="s">
+        <v>395</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>396</v>
+      </c>
+      <c r="B333" t="s">
+        <v>397</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>773</v>
+      </c>
+      <c r="B334" t="s">
+        <v>774</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>775</v>
+      </c>
+      <c r="B335" t="s">
+        <v>776</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>777</v>
+      </c>
+      <c r="B336" t="s">
+        <v>778</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>779</v>
+      </c>
+      <c r="B337" t="s">
+        <v>528</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>780</v>
+      </c>
+      <c r="B338" t="s">
+        <v>529</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>781</v>
+      </c>
+      <c r="B339" t="s">
+        <v>530</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>782</v>
+      </c>
+      <c r="B340" t="s">
+        <v>531</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>783</v>
+      </c>
+      <c r="B341" t="s">
+        <v>532</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>784</v>
+      </c>
+      <c r="B342" t="s">
+        <v>533</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>785</v>
+      </c>
+      <c r="B343" t="s">
+        <v>534</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>786</v>
+      </c>
+      <c r="B344" t="s">
+        <v>535</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>787</v>
+      </c>
+      <c r="B345" t="s">
+        <v>788</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>789</v>
+      </c>
+      <c r="B346" t="s">
+        <v>790</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>791</v>
+      </c>
+      <c r="B347" t="s">
+        <v>505</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>792</v>
+      </c>
+      <c r="B348" t="s">
+        <v>793</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>794</v>
+      </c>
+      <c r="B349" t="s">
+        <v>795</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>796</v>
+      </c>
+      <c r="B350" t="s">
+        <v>797</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>398</v>
+      </c>
+      <c r="B351" t="s">
+        <v>399</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>400</v>
+      </c>
+      <c r="B352" t="s">
+        <v>401</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>402</v>
+      </c>
+      <c r="B353" t="s">
+        <v>403</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>404</v>
+      </c>
+      <c r="B354" t="s">
+        <v>405</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>406</v>
+      </c>
+      <c r="B355" t="s">
+        <v>407</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>408</v>
+      </c>
+      <c r="B356" t="s">
+        <v>409</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>410</v>
+      </c>
+      <c r="B357" t="s">
+        <v>411</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>412</v>
+      </c>
+      <c r="B358" t="s">
+        <v>413</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>414</v>
+      </c>
+      <c r="B359" t="s">
+        <v>415</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>416</v>
+      </c>
+      <c r="B360" t="s">
+        <v>417</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>418</v>
+      </c>
+      <c r="B361" t="s">
+        <v>419</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>421</v>
+      </c>
+      <c r="B362" t="s">
+        <v>422</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>423</v>
+      </c>
+      <c r="B363" t="s">
+        <v>424</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>425</v>
+      </c>
+      <c r="B364" t="s">
+        <v>426</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>427</v>
+      </c>
+      <c r="B365" t="s">
+        <v>428</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>429</v>
+      </c>
+      <c r="B366" t="s">
+        <v>430</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>431</v>
+      </c>
+      <c r="B367" t="s">
+        <v>432</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>433</v>
+      </c>
+      <c r="B368" t="s">
+        <v>434</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>435</v>
+      </c>
+      <c r="B369" t="s">
+        <v>436</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>437</v>
+      </c>
+      <c r="B370" t="s">
+        <v>438</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>439</v>
+      </c>
+      <c r="B371" t="s">
+        <v>440</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3">
+        <v>2023027733</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>798</v>
+      </c>
+      <c r="B373" t="s">
+        <v>799</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>800</v>
+      </c>
+      <c r="B374" t="s">
+        <v>801</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>802</v>
+      </c>
+      <c r="B375" t="s">
+        <v>803</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>804</v>
+      </c>
+      <c r="B376" t="s">
+        <v>805</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>806</v>
+      </c>
+      <c r="B377" t="s">
+        <v>807</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>808</v>
+      </c>
+      <c r="B378" t="s">
+        <v>809</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>810</v>
+      </c>
+      <c r="B379" t="s">
+        <v>811</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>812</v>
+      </c>
+      <c r="B380" t="s">
+        <v>813</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>814</v>
+      </c>
+      <c r="B381" t="s">
+        <v>815</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>441</v>
+      </c>
+      <c r="B382" t="s">
+        <v>442</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>443</v>
+      </c>
+      <c r="B383" t="s">
+        <v>444</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>445</v>
+      </c>
+      <c r="B384" t="s">
+        <v>446</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>447</v>
+      </c>
+      <c r="B385" t="s">
+        <v>448</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>449</v>
+      </c>
+      <c r="B386" t="s">
+        <v>450</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>451</v>
+      </c>
+      <c r="B387" t="s">
+        <v>452</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>453</v>
+      </c>
+      <c r="B388" t="s">
+        <v>454</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>455</v>
+      </c>
+      <c r="B389" t="s">
+        <v>456</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>458</v>
+      </c>
+      <c r="B390" t="s">
+        <v>459</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>460</v>
+      </c>
+      <c r="B391" t="s">
+        <v>461</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>462</v>
+      </c>
+      <c r="B392" t="s">
+        <v>463</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>464</v>
+      </c>
+      <c r="B393" t="s">
+        <v>465</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>466</v>
+      </c>
+      <c r="B394" t="s">
+        <v>467</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>468</v>
+      </c>
+      <c r="B395" t="s">
+        <v>469</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>470</v>
+      </c>
+      <c r="B396" t="s">
+        <v>471</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>472</v>
+      </c>
+      <c r="B397" t="s">
+        <v>473</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>474</v>
+      </c>
+      <c r="B398" t="s">
+        <v>475</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>476</v>
+      </c>
+      <c r="B399" t="s">
+        <v>477</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>478</v>
+      </c>
+      <c r="B400" t="s">
+        <v>479</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>480</v>
+      </c>
+      <c r="B401" t="s">
+        <v>481</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>482</v>
+      </c>
+      <c r="B402" t="s">
+        <v>483</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>484</v>
+      </c>
+      <c r="B403" t="s">
+        <v>485</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>486</v>
+      </c>
+      <c r="B404" t="s">
+        <v>487</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>488</v>
+      </c>
+      <c r="B405" t="s">
+        <v>489</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>490</v>
+      </c>
+      <c r="B406" t="s">
+        <v>491</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>492</v>
+      </c>
+      <c r="B407" t="s">
+        <v>493</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>494</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B408" t="s">
         <v>495</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C408" s="2" t="s">
         <v>457</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>